--- a/excel_modelos.xlsx
+++ b/excel_modelos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alberto/UCM/Machine Learning/Practica ML/MachineLearning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3207614-7581-6943-AA77-29F1695FAF2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D13ACE-D198-BD4A-A4CC-572E3C94337D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{B0840C7C-E82D-0F46-8C15-AC9C71E25BFA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$29:$H$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$26:$H$26</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -75,258 +75,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>0.8054645</t>
-  </si>
-  <si>
-    <t>0.3943255</t>
-  </si>
-  <si>
-    <t>0.016284463</t>
-  </si>
-  <si>
-    <t>0.05359410</t>
-  </si>
-  <si>
-    <t>0.8120600</t>
-  </si>
-  <si>
-    <t>0.4169242</t>
-  </si>
-  <si>
-    <t>0.016234573</t>
-  </si>
-  <si>
-    <t>0.05414940</t>
-  </si>
-  <si>
-    <t>0.8018072</t>
-  </si>
-  <si>
-    <t>0.3801137</t>
-  </si>
-  <si>
-    <t>0.014248789</t>
-  </si>
-  <si>
-    <t>0.04564813</t>
-  </si>
-  <si>
-    <t>0.8287289</t>
-  </si>
-  <si>
-    <t>0.4764825</t>
-  </si>
-  <si>
-    <t>0.016146218</t>
-  </si>
-  <si>
-    <t>0.05464969</t>
-  </si>
-  <si>
-    <t>0.8487492</t>
-  </si>
-  <si>
-    <t>0.5431148</t>
-  </si>
-  <si>
-    <t>0.017416828</t>
-  </si>
-  <si>
-    <t>0.05910120</t>
-  </si>
-  <si>
-    <t>0.8554137</t>
-  </si>
-  <si>
-    <t>0.5647191</t>
-  </si>
-  <si>
-    <t>0.017256974</t>
-  </si>
-  <si>
-    <t>0.05604669</t>
-  </si>
-  <si>
-    <t>0.8485467</t>
-  </si>
-  <si>
-    <t>0.5422157</t>
-  </si>
-  <si>
-    <t>0.014278240</t>
-  </si>
-  <si>
-    <t>0.05059456</t>
-  </si>
-  <si>
-    <t>0.8682945</t>
-  </si>
-  <si>
-    <t>0.6090010</t>
-  </si>
-  <si>
-    <t>0.015966764</t>
-  </si>
-  <si>
-    <t>0.05101954</t>
-  </si>
-  <si>
-    <t>0.8707513</t>
-  </si>
-  <si>
-    <t>0.6158719</t>
-  </si>
-  <si>
-    <t>0.011823931</t>
-  </si>
-  <si>
-    <t>0.03753665</t>
-  </si>
-  <si>
-    <t>0.8477264</t>
-  </si>
-  <si>
-    <t>0.5476451</t>
-  </si>
-  <si>
-    <t>0.015597299</t>
-  </si>
-  <si>
-    <t>0.04829388</t>
-  </si>
-  <si>
-    <t>0.8685311</t>
-  </si>
-  <si>
-    <t>0.6123638</t>
-  </si>
-  <si>
-    <t>0.013726229</t>
-  </si>
-  <si>
-    <t>0.04521253</t>
-  </si>
-  <si>
-    <t>0.8760487</t>
-  </si>
-  <si>
-    <t>0.6315781</t>
-  </si>
-  <si>
-    <t>0.010971257</t>
-  </si>
-  <si>
-    <t>0.03585655</t>
-  </si>
-  <si>
-    <t>0.8557893</t>
-  </si>
-  <si>
-    <t>0.5689824</t>
-  </si>
-  <si>
-    <t>0.017414422</t>
-  </si>
-  <si>
-    <t>0.05780120</t>
-  </si>
-  <si>
-    <t>0.8743066</t>
-  </si>
-  <si>
-    <t>0.6338810</t>
-  </si>
-  <si>
-    <t>0.007592485</t>
-  </si>
-  <si>
-    <t>0.02220192</t>
-  </si>
-  <si>
-    <t>0.8763233</t>
-  </si>
-  <si>
-    <t>0.6357794</t>
-  </si>
-  <si>
-    <t>0.011386050</t>
-  </si>
-  <si>
-    <t>0.03570977</t>
-  </si>
-  <si>
-    <t>0.8572242</t>
-  </si>
-  <si>
-    <t>0.5784241</t>
-  </si>
-  <si>
-    <t>0.015732243</t>
-  </si>
-  <si>
-    <t>0.04943271</t>
-  </si>
-  <si>
-    <t>0.8741690</t>
-  </si>
-  <si>
-    <t>0.6339846</t>
-  </si>
-  <si>
-    <t>0.010663533</t>
-  </si>
-  <si>
-    <t>0.03410017</t>
-  </si>
-  <si>
-    <t>0.8772449</t>
-  </si>
-  <si>
-    <t>0.6389181</t>
-  </si>
-  <si>
-    <t>0.009719303</t>
-  </si>
-  <si>
-    <t>0.03070227</t>
-  </si>
-  <si>
-    <t>0.8595142</t>
-  </si>
-  <si>
-    <t>0.5842636</t>
-  </si>
-  <si>
-    <t>0.011908518</t>
-  </si>
-  <si>
-    <t>0.03870275</t>
-  </si>
-  <si>
-    <t>0.8707886</t>
-  </si>
-  <si>
-    <t>0.6262770</t>
-  </si>
-  <si>
-    <t>0.009848577</t>
-  </si>
-  <si>
-    <t>0.03041970</t>
-  </si>
-  <si>
-    <t>0.8751947</t>
-  </si>
-  <si>
-    <t>0.6313927</t>
-  </si>
-  <si>
-    <t>0.011183846</t>
-  </si>
-  <si>
-    <t>0.03664339</t>
-  </si>
-  <si>
     <t>0.8110655</t>
   </si>
   <si>
@@ -685,6 +433,258 @@
   </si>
   <si>
     <t>0.04635476</t>
+  </si>
+  <si>
+    <t>0.8120901</t>
+  </si>
+  <si>
+    <t>0.4119671</t>
+  </si>
+  <si>
+    <t>0.013795688</t>
+  </si>
+  <si>
+    <t>0.04860742</t>
+  </si>
+  <si>
+    <t>0.8195392</t>
+  </si>
+  <si>
+    <t>0.4387809</t>
+  </si>
+  <si>
+    <t>0.018138925</t>
+  </si>
+  <si>
+    <t>0.06182289</t>
+  </si>
+  <si>
+    <t>0.8086063</t>
+  </si>
+  <si>
+    <t>0.4013739</t>
+  </si>
+  <si>
+    <t>0.013606921</t>
+  </si>
+  <si>
+    <t>0.04603410</t>
+  </si>
+  <si>
+    <t>0.8546305</t>
+  </si>
+  <si>
+    <t>0.5626968</t>
+  </si>
+  <si>
+    <t>0.022572280</t>
+  </si>
+  <si>
+    <t>0.07199221</t>
+  </si>
+  <si>
+    <t>0.8796698</t>
+  </si>
+  <si>
+    <t>0.6415999</t>
+  </si>
+  <si>
+    <t>0.012113451</t>
+  </si>
+  <si>
+    <t>0.04045545</t>
+  </si>
+  <si>
+    <t>0.8684983</t>
+  </si>
+  <si>
+    <t>0.6076671</t>
+  </si>
+  <si>
+    <t>0.014020243</t>
+  </si>
+  <si>
+    <t>0.04339637</t>
+  </si>
+  <si>
+    <t>0.8820287</t>
+  </si>
+  <si>
+    <t>0.6509926</t>
+  </si>
+  <si>
+    <t>0.011063167</t>
+  </si>
+  <si>
+    <t>0.03643104</t>
+  </si>
+  <si>
+    <t>0.8895437</t>
+  </si>
+  <si>
+    <t>0.6768408</t>
+  </si>
+  <si>
+    <t>0.009261717</t>
+  </si>
+  <si>
+    <t>0.02909418</t>
+  </si>
+  <si>
+    <t>0.8835311</t>
+  </si>
+  <si>
+    <t>0.6549481</t>
+  </si>
+  <si>
+    <t>0.009080890</t>
+  </si>
+  <si>
+    <t>0.02935018</t>
+  </si>
+  <si>
+    <t>0.8882141</t>
+  </si>
+  <si>
+    <t>0.6724538</t>
+  </si>
+  <si>
+    <t>0.011035815</t>
+  </si>
+  <si>
+    <t>0.03557421</t>
+  </si>
+  <si>
+    <t>0.8925517</t>
+  </si>
+  <si>
+    <t>0.6867876</t>
+  </si>
+  <si>
+    <t>0.007882894</t>
+  </si>
+  <si>
+    <t>0.02456721</t>
+  </si>
+  <si>
+    <t>0.8845224</t>
+  </si>
+  <si>
+    <t>0.6594626</t>
+  </si>
+  <si>
+    <t>0.008423906</t>
+  </si>
+  <si>
+    <t>0.02675426</t>
+  </si>
+  <si>
+    <t>0.8867444</t>
+  </si>
+  <si>
+    <t>0.6675414</t>
+  </si>
+  <si>
+    <t>0.010600412</t>
+  </si>
+  <si>
+    <t>0.03523727</t>
+  </si>
+  <si>
+    <t>0.8911152</t>
+  </si>
+  <si>
+    <t>0.6833105</t>
+  </si>
+  <si>
+    <t>0.010208898</t>
+  </si>
+  <si>
+    <t>0.03139316</t>
+  </si>
+  <si>
+    <t>0.8837710</t>
+  </si>
+  <si>
+    <t>0.6558401</t>
+  </si>
+  <si>
+    <t>0.007981874</t>
+  </si>
+  <si>
+    <t>0.02505043</t>
+  </si>
+  <si>
+    <t>0.8881790</t>
+  </si>
+  <si>
+    <t>0.6717367</t>
+  </si>
+  <si>
+    <t>0.010425454</t>
+  </si>
+  <si>
+    <t>0.03437524</t>
+  </si>
+  <si>
+    <t>0.8916627</t>
+  </si>
+  <si>
+    <t>0.6875488</t>
+  </si>
+  <si>
+    <t>0.009690669</t>
+  </si>
+  <si>
+    <t>0.02968868</t>
+  </si>
+  <si>
+    <t>0.8839412</t>
+  </si>
+  <si>
+    <t>0.6577310</t>
+  </si>
+  <si>
+    <t>0.007885998</t>
+  </si>
+  <si>
+    <t>0.02488802</t>
+  </si>
+  <si>
+    <t>0.8862661</t>
+  </si>
+  <si>
+    <t>0.6674491</t>
+  </si>
+  <si>
+    <t>0.009424697</t>
+  </si>
+  <si>
+    <t>0.03180175</t>
+  </si>
+  <si>
+    <t>0.8886903</t>
+  </si>
+  <si>
+    <t>0.6779826</t>
+  </si>
+  <si>
+    <t>0.008971423</t>
+  </si>
+  <si>
+    <t>0.02736969</t>
+  </si>
+  <si>
+    <t>0.8848297</t>
+  </si>
+  <si>
+    <t>0.6606689</t>
+  </si>
+  <si>
+    <t>0.009449342</t>
+  </si>
+  <si>
+    <t>0.03016946</t>
   </si>
 </sst>
 </file>
@@ -726,10 +726,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC396EB-C8BA-6C4F-BE4D-4CBA37822C79}">
-  <dimension ref="A3:H59"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1057,350 +1056,402 @@
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
+      <c r="A3" s="1">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
         <v>15</v>
       </c>
-      <c r="B5" s="1">
-        <v>25</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>95</v>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H7" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>193</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>204</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>206</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="A11">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>47</v>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" t="s">
+        <v>214</v>
+      </c>
+      <c r="H11" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="H14" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -1409,76 +1460,76 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -1487,50 +1538,50 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -1539,128 +1590,154 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
       <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>20</v>
+      </c>
+      <c r="B27" s="1">
+        <v>35</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" t="s">
-        <v>6</v>
+      <c r="B29" s="1">
+        <v>40</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
+        <v>11</v>
+      </c>
+      <c r="B30" s="1">
         <v>20</v>
-      </c>
-      <c r="B30" s="1">
-        <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>9</v>
@@ -1669,24 +1746,24 @@
         <v>8</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>174</v>
+        <v>54</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>175</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>9</v>
@@ -1695,24 +1772,24 @@
         <v>8</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>199</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>9</v>
@@ -1721,24 +1798,24 @@
         <v>8</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B33" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>9</v>
@@ -1747,102 +1824,102 @@
         <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>29</v>
-      </c>
-      <c r="B34" s="1">
+      <c r="A34">
+        <v>21</v>
+      </c>
+      <c r="B34">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>27</v>
+      </c>
+      <c r="B35">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" t="s">
+        <v>118</v>
+      </c>
+      <c r="H35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36">
         <v>50</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>17</v>
-      </c>
-      <c r="B35" s="1">
-        <v>30</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>14</v>
-      </c>
-      <c r="B36" s="1">
-        <v>25</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>151</v>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B37">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -1851,24 +1928,24 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="F37" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="G37" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="H37" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B38">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -1877,102 +1954,102 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="F38" t="s">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s">
-        <v>203</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B39">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="F39" t="s">
-        <v>213</v>
+        <v>97</v>
       </c>
       <c r="G39" t="s">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="H39" t="s">
-        <v>215</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B40">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="F40" t="s">
-        <v>189</v>
+        <v>109</v>
       </c>
       <c r="G40" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="H40" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B41">
         <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="F41" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="G41" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="H41" t="s">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B42">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -1981,24 +2058,24 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="F42" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="G42" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="H42" t="s">
-        <v>183</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B43">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -2007,76 +2084,76 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="F43" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s">
-        <v>194</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s">
-        <v>195</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="F44" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="G44" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="H44" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B45">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>204</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="H45" t="s">
-        <v>207</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B46">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -2085,24 +2162,24 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="F46" t="s">
-        <v>169</v>
+        <v>61</v>
       </c>
       <c r="G46" t="s">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="H46" t="s">
-        <v>171</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B47">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
@@ -2111,50 +2188,50 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="F47" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="G47" t="s">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="H47" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B48">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="F48" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="H48" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B49">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -2163,24 +2240,24 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="H49" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
@@ -2189,102 +2266,102 @@
         <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="G50" t="s">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51">
         <v>10</v>
       </c>
-      <c r="B51">
-        <v>20</v>
-      </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="F51" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="H51" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B52">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="F52" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="H52" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="F53" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="G53" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="H53" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
         <v>5</v>
-      </c>
-      <c r="B54">
-        <v>10</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
@@ -2293,152 +2370,74 @@
         <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="G54" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="H54" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B55">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
         <v>10</v>
       </c>
-      <c r="C56" t="s">
-        <v>7</v>
-      </c>
       <c r="D56" t="s">
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="G56" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="H56" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>2</v>
-      </c>
-      <c r="B57">
-        <v>5</v>
-      </c>
-      <c r="C57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" t="s">
-        <v>100</v>
-      </c>
-      <c r="F57" t="s">
-        <v>101</v>
-      </c>
-      <c r="G57" t="s">
-        <v>102</v>
-      </c>
-      <c r="H57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58">
-        <v>5</v>
-      </c>
-      <c r="C58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" t="s">
-        <v>96</v>
-      </c>
-      <c r="F58" t="s">
-        <v>97</v>
-      </c>
-      <c r="G58" t="s">
-        <v>98</v>
-      </c>
-      <c r="H58" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>3</v>
-      </c>
-      <c r="B59">
-        <v>5</v>
-      </c>
-      <c r="C59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F59" t="s">
-        <v>105</v>
-      </c>
-      <c r="G59" t="s">
-        <v>106</v>
-      </c>
-      <c r="H59" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A29:H29" xr:uid="{1402D3FF-6B18-1642-AA25-F8C8933537B8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A30:H59">
-      <sortCondition descending="1" ref="E29:E59"/>
+  <autoFilter ref="A26:H26" xr:uid="{0F043080-449E-8743-A0DF-3F371AA4F51C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A27:H56">
+      <sortCondition descending="1" ref="E26:E56"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_modelos.xlsx
+++ b/excel_modelos.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alberto/UCM/Machine Learning/Practica ML/MachineLearning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E096E1B3-4BB1-4947-855A-3819DF4A1731}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A690288C-87EE-024B-B3DE-9C8E7EC6077A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{B0840C7C-E82D-0F46-8C15-AC9C71E25BFA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="avnnet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$27:$H$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">avnnet!#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="216">
   <si>
     <t>size</t>
   </si>
@@ -363,292 +363,328 @@
     <t>0.02983666</t>
   </si>
   <si>
-    <t>0.8076179</t>
-  </si>
-  <si>
-    <t>0.4032222</t>
-  </si>
-  <si>
-    <t>0.010929878</t>
-  </si>
-  <si>
-    <t>0.03604983</t>
-  </si>
-  <si>
-    <t>0.8117200</t>
-  </si>
-  <si>
-    <t>0.4203844</t>
-  </si>
-  <si>
-    <t>0.016330305</t>
-  </si>
-  <si>
-    <t>0.05251295</t>
-  </si>
-  <si>
-    <t>0.7976417</t>
-  </si>
-  <si>
-    <t>0.3711914</t>
-  </si>
-  <si>
-    <t>0.013839627</t>
-  </si>
-  <si>
-    <t>0.04247613</t>
-  </si>
-  <si>
-    <t>0.8346083</t>
-  </si>
-  <si>
-    <t>0.4953779</t>
-  </si>
-  <si>
-    <t>0.016549261</t>
-  </si>
-  <si>
-    <t>0.05507661</t>
-  </si>
-  <si>
-    <t>0.8513791</t>
-  </si>
-  <si>
-    <t>0.5524409</t>
-  </si>
-  <si>
-    <t>0.020176498</t>
-  </si>
-  <si>
-    <t>0.06725970</t>
-  </si>
-  <si>
-    <t>0.8398376</t>
-  </si>
-  <si>
-    <t>0.5148413</t>
-  </si>
-  <si>
-    <t>0.015966547</t>
-  </si>
-  <si>
-    <t>0.05291783</t>
-  </si>
-  <si>
-    <t>0.8595828</t>
-  </si>
-  <si>
-    <t>0.5814633</t>
-  </si>
-  <si>
-    <t>0.016869090</t>
-  </si>
-  <si>
-    <t>0.05263943</t>
-  </si>
-  <si>
-    <t>0.8710267</t>
-  </si>
-  <si>
-    <t>0.6188314</t>
-  </si>
-  <si>
-    <t>0.013622421</t>
-  </si>
-  <si>
-    <t>0.04166694</t>
-  </si>
-  <si>
-    <t>0.8582841</t>
-  </si>
-  <si>
-    <t>0.5758497</t>
-  </si>
-  <si>
-    <t>0.015715523</t>
-  </si>
-  <si>
-    <t>0.05203784</t>
-  </si>
-  <si>
-    <t>0.8677455</t>
-  </si>
-  <si>
-    <t>0.6043609</t>
-  </si>
-  <si>
-    <t>0.014203556</t>
-  </si>
-  <si>
-    <t>0.05325709</t>
-  </si>
-  <si>
-    <t>0.8826438</t>
-  </si>
-  <si>
-    <t>0.6566757</t>
-  </si>
-  <si>
-    <t>0.012804470</t>
-  </si>
-  <si>
-    <t>0.04222877</t>
-  </si>
-  <si>
-    <t>0.8695248</t>
-  </si>
-  <si>
-    <t>0.6146867</t>
-  </si>
-  <si>
-    <t>0.015977296</t>
-  </si>
-  <si>
-    <t>0.04947750</t>
-  </si>
-  <si>
-    <t>0.8762883</t>
-  </si>
-  <si>
-    <t>0.6352897</t>
-  </si>
-  <si>
-    <t>0.011712324</t>
-  </si>
-  <si>
-    <t>0.03975480</t>
-  </si>
-  <si>
-    <t>0.8851711</t>
-  </si>
-  <si>
-    <t>0.6642220</t>
-  </si>
-  <si>
-    <t>0.011602590</t>
-  </si>
-  <si>
-    <t>0.04110524</t>
-  </si>
-  <si>
-    <t>0.8745449</t>
-  </si>
-  <si>
-    <t>0.6302018</t>
-  </si>
-  <si>
-    <t>0.011264777</t>
-  </si>
-  <si>
-    <t>0.03612892</t>
-  </si>
-  <si>
-    <t>0.8764923</t>
-  </si>
-  <si>
-    <t>0.6366399</t>
-  </si>
-  <si>
-    <t>0.011755324</t>
-  </si>
-  <si>
-    <t>0.04087021</t>
-  </si>
-  <si>
-    <t>0.8836668</t>
-  </si>
-  <si>
-    <t>0.6632099</t>
-  </si>
-  <si>
-    <t>0.009614582</t>
-  </si>
-  <si>
-    <t>0.03181905</t>
-  </si>
-  <si>
-    <t>0.8777919</t>
-  </si>
-  <si>
-    <t>0.6399005</t>
-  </si>
-  <si>
-    <t>0.010359754</t>
-  </si>
-  <si>
-    <t>0.03437722</t>
-  </si>
-  <si>
-    <t>0.8677422</t>
-  </si>
-  <si>
-    <t>0.5963177</t>
-  </si>
-  <si>
-    <t>0.029392842</t>
-  </si>
-  <si>
-    <t>0.13201070</t>
-  </si>
-  <si>
-    <t>0.8866411</t>
-  </si>
-  <si>
-    <t>0.6724148</t>
-  </si>
-  <si>
-    <t>0.008155140</t>
-  </si>
-  <si>
-    <t>0.02496109</t>
-  </si>
-  <si>
-    <t>0.8760822</t>
-  </si>
-  <si>
-    <t>0.6352990</t>
-  </si>
-  <si>
-    <t>0.010600810</t>
-  </si>
-  <si>
-    <t>0.03570279</t>
-  </si>
-  <si>
-    <t>0.8748226</t>
-  </si>
-  <si>
-    <t>0.6302574</t>
-  </si>
-  <si>
-    <t>0.013800361</t>
-  </si>
-  <si>
-    <t>0.05162363</t>
-  </si>
-  <si>
-    <t>0.8857531</t>
-  </si>
-  <si>
-    <t>0.6719724</t>
-  </si>
-  <si>
-    <t>0.008573942</t>
-  </si>
-  <si>
-    <t>0.02849036</t>
-  </si>
-  <si>
-    <t>0.8751608</t>
-  </si>
-  <si>
-    <t>0.6296232</t>
-  </si>
-  <si>
-    <t>0.012151873</t>
-  </si>
-  <si>
-    <t>0.03897247</t>
+    <t>0.8358688</t>
+  </si>
+  <si>
+    <t>0.4840134</t>
+  </si>
+  <si>
+    <t>0.016325245</t>
+  </si>
+  <si>
+    <t>0.06091533</t>
+  </si>
+  <si>
+    <t>0.8447890</t>
+  </si>
+  <si>
+    <t>0.5177406</t>
+  </si>
+  <si>
+    <t>0.011611500</t>
+  </si>
+  <si>
+    <t>0.04195275</t>
+  </si>
+  <si>
+    <t>0.8303017</t>
+  </si>
+  <si>
+    <t>0.4639823</t>
+  </si>
+  <si>
+    <t>0.014318423</t>
+  </si>
+  <si>
+    <t>0.05084130</t>
+  </si>
+  <si>
+    <t>0.8906726</t>
+  </si>
+  <si>
+    <t>0.6736928</t>
+  </si>
+  <si>
+    <t>0.010917723</t>
+  </si>
+  <si>
+    <t>0.03714253</t>
+  </si>
+  <si>
+    <t>0.8946358</t>
+  </si>
+  <si>
+    <t>0.6872036</t>
+  </si>
+  <si>
+    <t>0.007847313</t>
+  </si>
+  <si>
+    <t>0.02571774</t>
+  </si>
+  <si>
+    <t>0.8855818</t>
+  </si>
+  <si>
+    <t>0.6566383</t>
+  </si>
+  <si>
+    <t>0.007401119</t>
+  </si>
+  <si>
+    <t>0.02485905</t>
+  </si>
+  <si>
+    <t>0.8997609</t>
+  </si>
+  <si>
+    <t>0.7053214</t>
+  </si>
+  <si>
+    <t>0.006772079</t>
+  </si>
+  <si>
+    <t>0.02216133</t>
+  </si>
+  <si>
+    <t>0.8992479</t>
+  </si>
+  <si>
+    <t>0.7032527</t>
+  </si>
+  <si>
+    <t>0.008843997</t>
+  </si>
+  <si>
+    <t>0.02976412</t>
+  </si>
+  <si>
+    <t>0.8884856</t>
+  </si>
+  <si>
+    <t>0.6678473</t>
+  </si>
+  <si>
+    <t>0.008411892</t>
+  </si>
+  <si>
+    <t>0.02745861</t>
+  </si>
+  <si>
+    <t>0.9026305</t>
+  </si>
+  <si>
+    <t>0.7149741</t>
+  </si>
+  <si>
+    <t>0.007786521</t>
+  </si>
+  <si>
+    <t>0.02531815</t>
+  </si>
+  <si>
+    <t>0.8994869</t>
+  </si>
+  <si>
+    <t>0.7056515</t>
+  </si>
+  <si>
+    <t>0.007688537</t>
+  </si>
+  <si>
+    <t>0.02517763</t>
+  </si>
+  <si>
+    <t>0.8895444</t>
+  </si>
+  <si>
+    <t>0.6718478</t>
+  </si>
+  <si>
+    <t>0.008737003</t>
+  </si>
+  <si>
+    <t>0.02836792</t>
+  </si>
+  <si>
+    <t>0.9020152</t>
+  </si>
+  <si>
+    <t>0.7132076</t>
+  </si>
+  <si>
+    <t>0.008667291</t>
+  </si>
+  <si>
+    <t>0.02879044</t>
+  </si>
+  <si>
+    <t>0.9007853</t>
+  </si>
+  <si>
+    <t>0.7107657</t>
+  </si>
+  <si>
+    <t>0.008140261</t>
+  </si>
+  <si>
+    <t>0.02577743</t>
+  </si>
+  <si>
+    <t>0.8897164</t>
+  </si>
+  <si>
+    <t>0.6723037</t>
+  </si>
+  <si>
+    <t>0.008012559</t>
+  </si>
+  <si>
+    <t>0.02608556</t>
+  </si>
+  <si>
+    <t>0.9017081</t>
+  </si>
+  <si>
+    <t>0.7119742</t>
+  </si>
+  <si>
+    <t>0.007744721</t>
+  </si>
+  <si>
+    <t>0.02466230</t>
+  </si>
+  <si>
+    <t>0.8998632</t>
+  </si>
+  <si>
+    <t>0.7083635</t>
+  </si>
+  <si>
+    <t>0.006910462</t>
+  </si>
+  <si>
+    <t>0.02226815</t>
+  </si>
+  <si>
+    <t>0.8888957</t>
+  </si>
+  <si>
+    <t>0.6694324</t>
+  </si>
+  <si>
+    <t>0.009187570</t>
+  </si>
+  <si>
+    <t>0.03100125</t>
+  </si>
+  <si>
+    <t>0.9021868</t>
+  </si>
+  <si>
+    <t>0.7160991</t>
+  </si>
+  <si>
+    <t>0.007732151</t>
+  </si>
+  <si>
+    <t>0.02486756</t>
+  </si>
+  <si>
+    <t>0.8989061</t>
+  </si>
+  <si>
+    <t>0.7067005</t>
+  </si>
+  <si>
+    <t>0.007409018</t>
+  </si>
+  <si>
+    <t>0.02375790</t>
+  </si>
+  <si>
+    <t>0.8894082</t>
+  </si>
+  <si>
+    <t>0.6712949</t>
+  </si>
+  <si>
+    <t>0.008781464</t>
+  </si>
+  <si>
+    <t>0.02928335</t>
+  </si>
+  <si>
+    <t>0.8994190</t>
+  </si>
+  <si>
+    <t>0.7059055</t>
+  </si>
+  <si>
+    <t>0.007613786</t>
+  </si>
+  <si>
+    <t>0.02556930</t>
+  </si>
+  <si>
+    <t>0.8986332</t>
+  </si>
+  <si>
+    <t>0.7055397</t>
+  </si>
+  <si>
+    <t>0.007618261</t>
+  </si>
+  <si>
+    <t>0.02565334</t>
+  </si>
+  <si>
+    <t>0.8896133</t>
+  </si>
+  <si>
+    <t>0.6720462</t>
+  </si>
+  <si>
+    <t>0.008443782</t>
+  </si>
+  <si>
+    <t>0.02825107</t>
+  </si>
+  <si>
+    <t>0.8995550</t>
+  </si>
+  <si>
+    <t>0.7074086</t>
+  </si>
+  <si>
+    <t>0.007590756</t>
+  </si>
+  <si>
+    <t>0.02554399</t>
+  </si>
+  <si>
+    <t>0.8994521</t>
+  </si>
+  <si>
+    <t>0.7088708</t>
+  </si>
+  <si>
+    <t>0.008791577</t>
+  </si>
+  <si>
+    <t>0.02751139</t>
+  </si>
+  <si>
+    <t>0.8888273</t>
+  </si>
+  <si>
+    <t>0.6681455</t>
+  </si>
+  <si>
+    <t>0.008859042</t>
+  </si>
+  <si>
+    <t>0.03069892</t>
   </si>
 </sst>
 </file>
@@ -1008,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC396EB-C8BA-6C4F-BE4D-4CBA37822C79}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1672,341 +1708,325 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>20</v>
-      </c>
-      <c r="B28" s="1">
-        <v>35</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>199</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>14</v>
-      </c>
-      <c r="B30" s="1">
-        <v>25</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>163</v>
+      <c r="A30" s="2">
+        <v>19</v>
+      </c>
+      <c r="B30" s="2">
+        <v>35</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B31" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B32" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B33" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" s="2">
         <v>30</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>7</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>13</v>
-      </c>
-      <c r="B35" s="2">
-        <v>25</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="1">
+        <v>15</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>159</v>
+      <c r="D35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B36" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B37" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B38" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B39" s="2">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -2037,88 +2057,88 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B41" s="2">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
+        <v>23</v>
+      </c>
+      <c r="B42" s="2">
+        <v>40</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1">
         <v>10</v>
       </c>
-      <c r="B42" s="2">
-        <v>20</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>19</v>
-      </c>
-      <c r="B43" s="2">
-        <v>35</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>183</v>
+      <c r="C43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>7</v>
@@ -2127,24 +2147,24 @@
         <v>8</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B45" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>10</v>
@@ -2153,50 +2173,50 @@
         <v>8</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B46" s="2">
+        <v>40</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B47" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>10</v>
@@ -2205,102 +2225,102 @@
         <v>8</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B48" s="2">
+        <v>35</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B49" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B50" s="2">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>110</v>
+        <v>214</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>111</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B51" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>10</v>
@@ -2309,22 +2329,126 @@
         <v>8</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>6</v>
+      </c>
+      <c r="B52" s="2">
+        <v>10</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>2</v>
+      </c>
+      <c r="B53" s="2">
+        <v>5</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2">
+        <v>5</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>3</v>
+      </c>
+      <c r="B55" s="2">
+        <v>5</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A27:H27" xr:uid="{5671ACB8-728A-1D45-A4BD-132E4ED1A05A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A28:H51">
-      <sortCondition descending="1" ref="E27:E51"/>
+  <autoFilter ref="A28:H28" xr:uid="{3614577C-0E50-2A41-93FB-65D835B74EE4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A29:H55">
+      <sortCondition descending="1" ref="E28:E55"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_modelos.xlsx
+++ b/excel_modelos.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alberto/UCM/Machine Learning/Practica ML/MachineLearning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A690288C-87EE-024B-B3DE-9C8E7EC6077A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FFDA6A-C188-0B43-A276-A4D01A0CBE9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{B0840C7C-E82D-0F46-8C15-AC9C71E25BFA}"/>
+    <workbookView xWindow="5260" yWindow="-16500" windowWidth="28040" windowHeight="16340" activeTab="2" xr2:uid="{B0840C7C-E82D-0F46-8C15-AC9C71E25BFA}"/>
   </bookViews>
   <sheets>
     <sheet name="avnnet" sheetId="1" r:id="rId1"/>
+    <sheet name="modelo1" sheetId="2" r:id="rId2"/>
+    <sheet name="modelo2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">avnnet!#REF!</definedName>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="216">
   <si>
     <t>size</t>
   </si>
@@ -1046,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC396EB-C8BA-6C4F-BE4D-4CBA37822C79}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:E20"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="E28" sqref="A28:E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1718,21 +1720,6 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>4</v>
       </c>
@@ -1744,21 +1731,6 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>10</v>
-      </c>
-      <c r="B29" s="1">
-        <v>20</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="F29" s="1" t="s">
         <v>145</v>
       </c>
@@ -1770,21 +1742,6 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>19</v>
-      </c>
-      <c r="B30" s="2">
-        <v>35</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>181</v>
       </c>
@@ -1796,21 +1753,6 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>13</v>
-      </c>
-      <c r="B31" s="1">
-        <v>25</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="F31" s="1" t="s">
         <v>157</v>
       </c>
@@ -1822,21 +1764,6 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>16</v>
-      </c>
-      <c r="B32" s="1">
-        <v>30</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="F32" s="1" t="s">
         <v>169</v>
       </c>
@@ -1847,22 +1774,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>14</v>
-      </c>
-      <c r="B33" s="2">
-        <v>25</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>160</v>
-      </c>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F33" s="2" t="s">
         <v>161</v>
       </c>
@@ -1873,22 +1785,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>17</v>
-      </c>
-      <c r="B34" s="2">
-        <v>30</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>172</v>
-      </c>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F34" s="2" t="s">
         <v>173</v>
       </c>
@@ -1899,22 +1796,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>7</v>
-      </c>
-      <c r="B35" s="1">
-        <v>15</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>132</v>
-      </c>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F35" s="1" t="s">
         <v>133</v>
       </c>
@@ -1925,22 +1807,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>25</v>
-      </c>
-      <c r="B36" s="2">
-        <v>45</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>204</v>
-      </c>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F36" s="2" t="s">
         <v>205</v>
       </c>
@@ -1951,22 +1818,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>11</v>
-      </c>
-      <c r="B37" s="2">
-        <v>20</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>148</v>
-      </c>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F37" s="2" t="s">
         <v>149</v>
       </c>
@@ -1977,22 +1829,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>26</v>
-      </c>
-      <c r="B38" s="2">
-        <v>45</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>208</v>
-      </c>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F38" s="2" t="s">
         <v>209</v>
       </c>
@@ -2003,22 +1840,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>22</v>
-      </c>
-      <c r="B39" s="2">
-        <v>40</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>192</v>
-      </c>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F39" s="2" t="s">
         <v>193</v>
       </c>
@@ -2029,22 +1851,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>8</v>
-      </c>
-      <c r="B40" s="1">
-        <v>15</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>136</v>
-      </c>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F40" s="1" t="s">
         <v>137</v>
       </c>
@@ -2055,22 +1862,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>20</v>
-      </c>
-      <c r="B41" s="2">
-        <v>35</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>184</v>
-      </c>
+    <row r="41" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F41" s="2" t="s">
         <v>185</v>
       </c>
@@ -2081,22 +1873,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>23</v>
-      </c>
-      <c r="B42" s="2">
-        <v>40</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>196</v>
-      </c>
+    <row r="42" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F42" s="2" t="s">
         <v>197</v>
       </c>
@@ -2107,22 +1884,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>5</v>
-      </c>
-      <c r="B43" s="1">
-        <v>10</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>124</v>
-      </c>
+    <row r="43" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F43" s="1" t="s">
         <v>125</v>
       </c>
@@ -2133,22 +1895,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>4</v>
-      </c>
-      <c r="B44" s="2">
-        <v>10</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>120</v>
-      </c>
+    <row r="44" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F44" s="2" t="s">
         <v>121</v>
       </c>
@@ -2159,22 +1906,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>15</v>
-      </c>
-      <c r="B45" s="2">
-        <v>25</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>164</v>
-      </c>
+    <row r="45" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F45" s="2" t="s">
         <v>165</v>
       </c>
@@ -2185,22 +1917,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>24</v>
-      </c>
-      <c r="B46" s="2">
-        <v>40</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>200</v>
-      </c>
+    <row r="46" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F46" s="2" t="s">
         <v>201</v>
       </c>
@@ -2211,22 +1928,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>12</v>
-      </c>
-      <c r="B47" s="2">
-        <v>20</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>152</v>
-      </c>
+    <row r="47" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F47" s="2" t="s">
         <v>153</v>
       </c>
@@ -2237,22 +1939,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>21</v>
-      </c>
-      <c r="B48" s="2">
-        <v>35</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>188</v>
-      </c>
+    <row r="48" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F48" s="2" t="s">
         <v>189</v>
       </c>
@@ -2263,22 +1950,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>18</v>
-      </c>
-      <c r="B49" s="2">
-        <v>30</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>176</v>
-      </c>
+    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F49" s="2" t="s">
         <v>177</v>
       </c>
@@ -2289,22 +1961,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>27</v>
-      </c>
-      <c r="B50" s="2">
-        <v>45</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>212</v>
-      </c>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F50" s="2" t="s">
         <v>213</v>
       </c>
@@ -2315,22 +1972,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
-        <v>9</v>
-      </c>
-      <c r="B51" s="2">
-        <v>15</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>140</v>
-      </c>
+    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F51" s="2" t="s">
         <v>141</v>
       </c>
@@ -2341,22 +1983,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
-        <v>6</v>
-      </c>
-      <c r="B52" s="2">
-        <v>10</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>128</v>
-      </c>
+    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F52" s="2" t="s">
         <v>129</v>
       </c>
@@ -2367,22 +1994,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>2</v>
-      </c>
-      <c r="B53" s="2">
-        <v>5</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>112</v>
-      </c>
+    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F53" s="2" t="s">
         <v>113</v>
       </c>
@@ -2393,22 +2005,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>1</v>
-      </c>
-      <c r="B54" s="2">
-        <v>5</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>108</v>
-      </c>
+    <row r="54" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F54" s="2" t="s">
         <v>109</v>
       </c>
@@ -2419,22 +2016,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>3</v>
-      </c>
-      <c r="B55" s="2">
-        <v>5</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>116</v>
-      </c>
+    <row r="55" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F55" s="2" t="s">
         <v>117</v>
       </c>
@@ -2446,11 +2028,778 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A28:H28" xr:uid="{3614577C-0E50-2A41-93FB-65D835B74EE4}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A29:H55">
-      <sortCondition descending="1" ref="E28:E55"/>
-    </sortState>
-  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964C7671-A2D1-4142-9EF5-E6CE4609B35C}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551935DF-0266-8A48-9689-8D2672101205}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>35</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>